--- a/exports/daily_sales.xlsx
+++ b/exports/daily_sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misnm\omnicart-analytics\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED2E353-1D50-4FF3-A90D-20D0F16999C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BFCC36-BF32-412E-A341-DC711B80DA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AF9CC797-4F81-4810-BE50-8AA4ED04366D}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -684,23 +684,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-IN"/>
               <a:t>revenue and total_orders trends over time</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -717,13 +721,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -759,19 +768,22 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -815,19 +827,22 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1003,20 +1018,25 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:ln w="0"/>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:rPr lang="en-IN"/>
                   <a:t>order_day</a:t>
                 </a:r>
               </a:p>
@@ -1035,13 +1055,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1073,13 +1098,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1123,23 +1153,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:ln w="0"/>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:rPr lang="en-IN"/>
                   <a:t>revenue/orders</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1156,13 +1190,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1188,13 +1227,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1230,13 +1274,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1277,7 +1326,19 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0" cap="none" spc="0">
+          <a:ln w="0"/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="dk1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2137,10 +2198,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nirmal Kumar M" refreshedDate="45913.614796180555" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="593" xr:uid="{28F06F78-300A-4190-AD5A-2A14D5C98400}">
   <cacheSource type="worksheet">
@@ -5776,7 +5833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEC680FC-8C2B-48BC-867A-A64B1AE0D9ED}" name="daily_sales_trend" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEC680FC-8C2B-48BC-867A-A64B1AE0D9ED}" name="daily_sales_trend" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -13456,7 +13513,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
